--- a/abbreviations.xlsx
+++ b/abbreviations.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26819"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-120" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="-20" yWindow="0" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>NGS</t>
   </si>
@@ -39,16 +39,46 @@
     <t>Laboratoire National de Santé</t>
   </si>
   <si>
-    <t>TST15</t>
-  </si>
-  <si>
-    <t>Illumina TruSight Tumor 15</t>
-  </si>
-  <si>
     <t>NSCLC</t>
   </si>
   <si>
     <t>Non-Small Cell Lung Carcinoma</t>
+  </si>
+  <si>
+    <t>MSI</t>
+  </si>
+  <si>
+    <t>Microsatellite Instability</t>
+  </si>
+  <si>
+    <t>CIN</t>
+  </si>
+  <si>
+    <t>Chromosomal Instability</t>
+  </si>
+  <si>
+    <t>MMR</t>
+  </si>
+  <si>
+    <t>Mismatch Repair</t>
+  </si>
+  <si>
+    <t>CRC</t>
+  </si>
+  <si>
+    <t>Colorectal Cancer</t>
+  </si>
+  <si>
+    <t>LOH</t>
+  </si>
+  <si>
+    <t>Loss of Heterozygosity</t>
+  </si>
+  <si>
+    <t>EGFR</t>
+  </si>
+  <si>
+    <t>Epidermal Growth Factor Receptor</t>
   </si>
 </sst>
 </file>
@@ -88,7 +118,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -417,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -451,18 +481,58 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
